--- a/Code/Results/Cases/Case_3_241/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_241/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.88883191922809</v>
+        <v>16.57652354381622</v>
       </c>
       <c r="C2">
-        <v>19.8943730706795</v>
+        <v>12.0179391666997</v>
       </c>
       <c r="D2">
-        <v>8.867787128675129</v>
+        <v>10.64930469477278</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>26.53254442263762</v>
+        <v>32.87581516399901</v>
       </c>
       <c r="G2">
-        <v>30.53597043925564</v>
+        <v>33.54123221659911</v>
       </c>
       <c r="H2">
-        <v>9.757931263269986</v>
+        <v>15.24229421831632</v>
       </c>
       <c r="I2">
-        <v>12.31347449070664</v>
+        <v>20.65766956351989</v>
       </c>
       <c r="J2">
-        <v>8.30917477834844</v>
+        <v>11.33742494686702</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.20332165791143</v>
+        <v>15.87523957075624</v>
       </c>
       <c r="C3">
-        <v>18.53891320642646</v>
+        <v>11.38083011061292</v>
       </c>
       <c r="D3">
-        <v>8.426563231871674</v>
+        <v>10.5698421961238</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>25.59213795231252</v>
+        <v>32.87907548986671</v>
       </c>
       <c r="G3">
-        <v>29.23103940871477</v>
+        <v>33.51339753248437</v>
       </c>
       <c r="H3">
-        <v>9.702921899218671</v>
+        <v>15.30743810019331</v>
       </c>
       <c r="I3">
-        <v>12.55843194730324</v>
+        <v>20.82056591486488</v>
       </c>
       <c r="J3">
-        <v>8.024010944040075</v>
+        <v>11.32127608191666</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.10965439457424</v>
+        <v>15.42991651138738</v>
       </c>
       <c r="C4">
-        <v>17.66020207053275</v>
+        <v>10.97173728011472</v>
       </c>
       <c r="D4">
-        <v>8.147440385740287</v>
+        <v>10.52223316956167</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>25.03986733124553</v>
+        <v>32.89377933704076</v>
       </c>
       <c r="G4">
-        <v>28.46691006530592</v>
+        <v>33.51443709199092</v>
       </c>
       <c r="H4">
-        <v>9.683516165409721</v>
+        <v>15.35177067930391</v>
       </c>
       <c r="I4">
-        <v>12.73392517072532</v>
+        <v>20.92746547961286</v>
       </c>
       <c r="J4">
-        <v>7.85064973976643</v>
+        <v>11.31377666514362</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.64907045956712</v>
+        <v>15.24498941369897</v>
       </c>
       <c r="C5">
-        <v>17.29032368716688</v>
+        <v>10.80069448156167</v>
       </c>
       <c r="D5">
-        <v>8.031746369333698</v>
+        <v>10.50314418153018</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>24.82126924357348</v>
+        <v>32.90295194202901</v>
       </c>
       <c r="G5">
-        <v>28.16511990741936</v>
+        <v>33.51939528657008</v>
       </c>
       <c r="H5">
-        <v>9.679031937022385</v>
+        <v>15.37092096523281</v>
       </c>
       <c r="I5">
-        <v>12.81121099822354</v>
+        <v>20.97275093195296</v>
       </c>
       <c r="J5">
-        <v>7.78050693424993</v>
+        <v>11.31132963187937</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.57168688751979</v>
+        <v>15.21408172534895</v>
       </c>
       <c r="C6">
-        <v>17.22818992760468</v>
+        <v>10.77203672541796</v>
       </c>
       <c r="D6">
-        <v>8.012421565456481</v>
+        <v>10.49999374761643</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>24.78536488399847</v>
+        <v>32.90466670182168</v>
       </c>
       <c r="G6">
-        <v>28.11559513645542</v>
+        <v>33.52049161964902</v>
       </c>
       <c r="H6">
-        <v>9.678488515573786</v>
+        <v>15.37416619102398</v>
       </c>
       <c r="I6">
-        <v>12.8243780252865</v>
+        <v>20.98037440787811</v>
       </c>
       <c r="J6">
-        <v>7.768892288235718</v>
+        <v>11.3109601232862</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.10350331949089</v>
+        <v>15.42743615202942</v>
       </c>
       <c r="C7">
-        <v>17.65526167329594</v>
+        <v>10.96944784038692</v>
       </c>
       <c r="D7">
-        <v>8.145887818605999</v>
+        <v>10.52197444571892</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>25.03689292757393</v>
+        <v>32.89389018360743</v>
       </c>
       <c r="G7">
-        <v>28.46280080875345</v>
+        <v>33.51448563719535</v>
       </c>
       <c r="H7">
-        <v>9.683442079798509</v>
+        <v>15.35202456334304</v>
       </c>
       <c r="I7">
-        <v>12.73494478273804</v>
+        <v>20.92806924804166</v>
       </c>
       <c r="J7">
-        <v>7.849701636702267</v>
+        <v>11.31374119597809</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.31978219041965</v>
+        <v>16.33791862184389</v>
       </c>
       <c r="C8">
-        <v>19.43658040899116</v>
+        <v>11.80207179585775</v>
       </c>
       <c r="D8">
-        <v>8.717418973855571</v>
+        <v>10.62167002202078</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>26.20315589782103</v>
+        <v>32.8742959039737</v>
       </c>
       <c r="G8">
-        <v>30.07849260822003</v>
+        <v>33.5278593470112</v>
       </c>
       <c r="H8">
-        <v>9.735868453597671</v>
+        <v>15.2638530810053</v>
       </c>
       <c r="I8">
-        <v>12.3923897179228</v>
+        <v>20.71240379995712</v>
       </c>
       <c r="J8">
-        <v>8.210529722382558</v>
+        <v>11.33135640293135</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.2059477976338</v>
+        <v>17.99706543795873</v>
       </c>
       <c r="C9">
-        <v>22.56670521648106</v>
+        <v>13.2868334650534</v>
       </c>
       <c r="D9">
-        <v>9.769156031555911</v>
+        <v>10.82586410209789</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>28.68400763992867</v>
+        <v>32.93711035114306</v>
       </c>
       <c r="G9">
-        <v>33.52991024864346</v>
+        <v>33.69868289306758</v>
       </c>
       <c r="H9">
-        <v>9.960958381367885</v>
+        <v>15.12557604950412</v>
       </c>
       <c r="I9">
-        <v>11.94640812989017</v>
+        <v>20.34440777578984</v>
       </c>
       <c r="J9">
-        <v>8.929296558500125</v>
+        <v>11.3849852557477</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.7899884890943</v>
+        <v>19.12841870697823</v>
       </c>
       <c r="C10">
-        <v>24.65335955655379</v>
+        <v>14.28119070131794</v>
       </c>
       <c r="D10">
-        <v>10.49608322112846</v>
+        <v>10.98024626536915</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>30.61887314406345</v>
+        <v>33.04538777463353</v>
       </c>
       <c r="G10">
-        <v>36.2260206888197</v>
+        <v>33.91284136030261</v>
       </c>
       <c r="H10">
-        <v>10.21179734942744</v>
+        <v>15.04541524143807</v>
       </c>
       <c r="I10">
-        <v>11.79661827175497</v>
+        <v>20.10798943351103</v>
       </c>
       <c r="J10">
-        <v>9.461592945176619</v>
+        <v>11.43588061152636</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.90887155274111</v>
+        <v>19.6223314346237</v>
       </c>
       <c r="C11">
-        <v>25.55835947577871</v>
+        <v>14.71166706370346</v>
       </c>
       <c r="D11">
-        <v>10.81644903266974</v>
+        <v>11.05122016442852</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>31.52294369573438</v>
+        <v>33.10815474778799</v>
       </c>
       <c r="G11">
-        <v>37.48612936774857</v>
+        <v>34.0294672635288</v>
       </c>
       <c r="H11">
-        <v>10.34669871009227</v>
+        <v>15.01366862823244</v>
       </c>
       <c r="I11">
-        <v>11.77663791239376</v>
+        <v>20.00791447009023</v>
       </c>
       <c r="J11">
-        <v>9.704378499469863</v>
+        <v>11.4614905189759</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.32461988003242</v>
+        <v>19.80626313905879</v>
       </c>
       <c r="C12">
-        <v>25.89487836813871</v>
+        <v>14.87147597718161</v>
       </c>
       <c r="D12">
-        <v>10.93626949887752</v>
+        <v>11.07818564069411</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>31.86875299632138</v>
+        <v>33.13386178312426</v>
       </c>
       <c r="G12">
-        <v>37.96815110068325</v>
+        <v>34.07637600753094</v>
       </c>
       <c r="H12">
-        <v>10.40094946688851</v>
+        <v>15.00233093922991</v>
       </c>
       <c r="I12">
-        <v>11.7768215826071</v>
+        <v>19.97110275147302</v>
       </c>
       <c r="J12">
-        <v>9.796402681086185</v>
+        <v>11.47153755365657</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.23543131986374</v>
+        <v>19.76678983485794</v>
       </c>
       <c r="C13">
-        <v>25.82267512205199</v>
+        <v>14.83720154444431</v>
       </c>
       <c r="D13">
-        <v>10.91053052440218</v>
+        <v>11.07237446097205</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>31.79412194177842</v>
+        <v>33.12823920111795</v>
       </c>
       <c r="G13">
-        <v>37.86412224881005</v>
+        <v>34.06615162511418</v>
       </c>
       <c r="H13">
-        <v>10.38912197597515</v>
+        <v>15.00474220352328</v>
       </c>
       <c r="I13">
-        <v>11.77642412326382</v>
+        <v>19.97898241898097</v>
       </c>
       <c r="J13">
-        <v>9.776579690854216</v>
+        <v>11.469358290221</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.94323355987916</v>
+        <v>19.63752639901472</v>
       </c>
       <c r="C14">
-        <v>25.58616798360728</v>
+        <v>14.72487913138886</v>
       </c>
       <c r="D14">
-        <v>10.82633670726026</v>
+        <v>11.05343694529576</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>31.55132398031265</v>
+        <v>33.11023086670192</v>
       </c>
       <c r="G14">
-        <v>37.52568802264922</v>
+        <v>34.03327158021555</v>
       </c>
       <c r="H14">
-        <v>10.35109748756634</v>
+        <v>15.01272212912155</v>
       </c>
       <c r="I14">
-        <v>11.77649294677431</v>
+        <v>20.00486415494234</v>
       </c>
       <c r="J14">
-        <v>9.71194762316162</v>
+        <v>11.46231012362856</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.76322484352472</v>
+        <v>19.55794157682818</v>
       </c>
       <c r="C15">
-        <v>25.44050053657401</v>
+        <v>14.6556597150978</v>
       </c>
       <c r="D15">
-        <v>10.77457079002013</v>
+        <v>11.04184825499784</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>31.40305525731492</v>
+        <v>33.09945251071567</v>
       </c>
       <c r="G15">
-        <v>37.31902050811807</v>
+        <v>34.01348847281734</v>
       </c>
       <c r="H15">
-        <v>10.32822396425811</v>
+        <v>15.01769930987906</v>
       </c>
       <c r="I15">
-        <v>11.77756901293143</v>
+        <v>20.02085899898064</v>
       </c>
       <c r="J15">
-        <v>9.672370001071878</v>
+        <v>11.45803824991767</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.71574377988745</v>
+        <v>19.09571228266009</v>
       </c>
       <c r="C16">
-        <v>24.59334030341161</v>
+        <v>14.25261277148404</v>
       </c>
       <c r="D16">
-        <v>10.47493759854024</v>
+        <v>10.97562141192457</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>30.56027114713234</v>
+        <v>33.04155739051497</v>
       </c>
       <c r="G16">
-        <v>36.1443447900674</v>
+        <v>33.90560478108567</v>
       </c>
       <c r="H16">
-        <v>10.20341479188409</v>
+        <v>15.04758538644264</v>
       </c>
       <c r="I16">
-        <v>11.79896330472443</v>
+        <v>20.11468078047489</v>
       </c>
       <c r="J16">
-        <v>9.445738388693069</v>
+        <v>11.43425603947006</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.0587807928319</v>
+        <v>18.80674535206898</v>
       </c>
       <c r="C17">
-        <v>24.06242663676171</v>
+        <v>13.99971079102198</v>
       </c>
       <c r="D17">
-        <v>10.2884665026078</v>
+        <v>10.93517142060116</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>30.04936485380812</v>
+        <v>33.00949912219409</v>
       </c>
       <c r="G17">
-        <v>35.43230715053033</v>
+        <v>33.8443309219854</v>
       </c>
       <c r="H17">
-        <v>10.13230060102701</v>
+        <v>15.06713210543075</v>
       </c>
       <c r="I17">
-        <v>11.82500458698426</v>
+        <v>20.17415833426133</v>
       </c>
       <c r="J17">
-        <v>9.306862366864005</v>
+        <v>11.4202929342272</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.67557230390671</v>
+        <v>18.63859239271939</v>
       </c>
       <c r="C18">
-        <v>23.75288469824821</v>
+        <v>13.85219319237984</v>
       </c>
       <c r="D18">
-        <v>10.18024180578086</v>
+        <v>10.91197682533319</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>29.75774879131919</v>
+        <v>32.99233225443709</v>
       </c>
       <c r="G18">
-        <v>35.02592105159193</v>
+        <v>33.81089687270909</v>
       </c>
       <c r="H18">
-        <v>10.09334448134265</v>
+        <v>15.07881871022111</v>
       </c>
       <c r="I18">
-        <v>11.84446502586476</v>
+        <v>20.20907102386599</v>
       </c>
       <c r="J18">
-        <v>9.227044279761062</v>
+        <v>11.41249330660562</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.54490160931223</v>
+        <v>18.58132826037478</v>
       </c>
       <c r="C19">
-        <v>23.64735705857207</v>
+        <v>13.80189533038557</v>
       </c>
       <c r="D19">
-        <v>10.143432553536</v>
+        <v>10.9041363010508</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>29.65939834257615</v>
+        <v>32.98673842494139</v>
       </c>
       <c r="G19">
-        <v>34.88886973409737</v>
+        <v>33.79988776427993</v>
       </c>
       <c r="H19">
-        <v>10.08048356330172</v>
+        <v>15.0828516559031</v>
       </c>
       <c r="I19">
-        <v>11.85179893554025</v>
+        <v>20.22101226667478</v>
       </c>
       <c r="J19">
-        <v>9.200029941067795</v>
+        <v>11.40989238293662</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.12926702957721</v>
+        <v>18.83770878614809</v>
       </c>
       <c r="C20">
-        <v>24.11937412058101</v>
+        <v>14.02684580096939</v>
       </c>
       <c r="D20">
-        <v>10.30841734613644</v>
+        <v>10.93947015474263</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>30.10351953198682</v>
+        <v>33.01278013244258</v>
       </c>
       <c r="G20">
-        <v>35.50777809077854</v>
+        <v>33.85066649479285</v>
       </c>
       <c r="H20">
-        <v>10.13966804648745</v>
+        <v>15.06500534713785</v>
       </c>
       <c r="I20">
-        <v>11.82176262802596</v>
+        <v>20.16775404236089</v>
       </c>
       <c r="J20">
-        <v>9.321639867529827</v>
+        <v>11.42175539218784</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.02927323396274</v>
+        <v>19.6755792581673</v>
       </c>
       <c r="C21">
-        <v>25.65580224647058</v>
+        <v>14.75795829151006</v>
       </c>
       <c r="D21">
-        <v>10.8511070607127</v>
+        <v>11.0589970746044</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>31.62254528809627</v>
+        <v>33.1154677909639</v>
       </c>
       <c r="G21">
-        <v>37.62496222316906</v>
+        <v>34.04285491494862</v>
       </c>
       <c r="H21">
-        <v>10.36217886740461</v>
+        <v>15.01035962316447</v>
       </c>
       <c r="I21">
-        <v>11.7762557831011</v>
+        <v>19.99723254810037</v>
       </c>
       <c r="J21">
-        <v>9.730929242122803</v>
+        <v>11.46437090209826</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.22480855943713</v>
+        <v>20.20505055929059</v>
       </c>
       <c r="C22">
-        <v>26.62398929860472</v>
+        <v>15.21709296324635</v>
       </c>
       <c r="D22">
-        <v>11.19707752550262</v>
+        <v>11.13762644036836</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>32.63552873566123</v>
+        <v>33.19387501402013</v>
       </c>
       <c r="G22">
-        <v>39.06642658189232</v>
+        <v>34.18444853105425</v>
       </c>
       <c r="H22">
-        <v>10.52614044297106</v>
+        <v>14.97863518233315</v>
       </c>
       <c r="I22">
-        <v>11.79207177964157</v>
+        <v>19.89211302201067</v>
       </c>
       <c r="J22">
-        <v>9.998937451641046</v>
+        <v>11.49425524764789</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.59089112029314</v>
+        <v>19.92415495648313</v>
       </c>
       <c r="C23">
-        <v>26.11047768217771</v>
+        <v>14.97377077306243</v>
       </c>
       <c r="D23">
-        <v>11.0132230494661</v>
+        <v>11.09561957385421</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>32.09300589369796</v>
+        <v>33.15099643284778</v>
       </c>
       <c r="G23">
-        <v>38.28074225974619</v>
+        <v>34.10742186625743</v>
       </c>
       <c r="H23">
-        <v>10.43687698832075</v>
+        <v>14.99520027861899</v>
       </c>
       <c r="I23">
-        <v>11.77918787925025</v>
+        <v>19.94763508860559</v>
       </c>
       <c r="J23">
-        <v>9.855846919895441</v>
+        <v>11.47812094090737</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.09741738403241</v>
+        <v>18.82371650651677</v>
       </c>
       <c r="C24">
-        <v>24.0936416089764</v>
+        <v>14.01458466446622</v>
       </c>
       <c r="D24">
-        <v>10.29940074571492</v>
+        <v>10.93752650679254</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>30.07902962813194</v>
+        <v>33.01129285062165</v>
       </c>
       <c r="G24">
-        <v>35.47364841508738</v>
+        <v>33.84779659582886</v>
       </c>
       <c r="H24">
-        <v>10.13633123131195</v>
+        <v>15.06596545656262</v>
       </c>
       <c r="I24">
-        <v>11.82321439804731</v>
+        <v>20.17064718615046</v>
       </c>
       <c r="J24">
-        <v>9.314958885358902</v>
+        <v>11.42109350461139</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.20295621266973</v>
+        <v>17.56294244846251</v>
       </c>
       <c r="C25">
-        <v>21.75797011532145</v>
+        <v>12.90174042808348</v>
       </c>
       <c r="D25">
-        <v>9.492480894638895</v>
+        <v>10.7697892340432</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>27.99284198519997</v>
+        <v>32.90922376950051</v>
       </c>
       <c r="G25">
-        <v>32.56735900572119</v>
+        <v>33.63690891674104</v>
       </c>
       <c r="H25">
-        <v>9.885826685983945</v>
+        <v>15.1592429919309</v>
       </c>
       <c r="I25">
-        <v>12.03892075040712</v>
+        <v>20.43803363356785</v>
       </c>
       <c r="J25">
-        <v>8.733966373495003</v>
+        <v>11.36844666147552</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_241/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_241/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.57652354381622</v>
+        <v>24.88883191922813</v>
       </c>
       <c r="C2">
-        <v>12.0179391666997</v>
+        <v>19.8943730706796</v>
       </c>
       <c r="D2">
-        <v>10.64930469477278</v>
+        <v>8.867787128675049</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>32.87581516399901</v>
+        <v>26.53254442263751</v>
       </c>
       <c r="G2">
-        <v>33.54123221659911</v>
+        <v>30.53597043925566</v>
       </c>
       <c r="H2">
-        <v>15.24229421831632</v>
+        <v>9.757931263269876</v>
       </c>
       <c r="I2">
-        <v>20.65766956351989</v>
+        <v>12.31347449070655</v>
       </c>
       <c r="J2">
-        <v>11.33742494686702</v>
+        <v>8.30917477834844</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.87523957075624</v>
+        <v>23.20332165791146</v>
       </c>
       <c r="C3">
-        <v>11.38083011061292</v>
+        <v>18.53891320642639</v>
       </c>
       <c r="D3">
-        <v>10.5698421961238</v>
+        <v>8.426563231871679</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>32.87907548986671</v>
+        <v>25.59213795231254</v>
       </c>
       <c r="G3">
-        <v>33.51339753248437</v>
+        <v>29.23103940871483</v>
       </c>
       <c r="H3">
-        <v>15.30743810019331</v>
+        <v>9.702921899218705</v>
       </c>
       <c r="I3">
-        <v>20.82056591486488</v>
+        <v>12.55843194730326</v>
       </c>
       <c r="J3">
-        <v>11.32127608191666</v>
+        <v>8.024010944040105</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.42991651138738</v>
+        <v>22.10965439457417</v>
       </c>
       <c r="C4">
-        <v>10.97173728011472</v>
+        <v>17.66020207053283</v>
       </c>
       <c r="D4">
-        <v>10.52223316956167</v>
+        <v>8.147440385740214</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>32.89377933704076</v>
+        <v>25.03986733124558</v>
       </c>
       <c r="G4">
-        <v>33.51443709199092</v>
+        <v>28.46691006530592</v>
       </c>
       <c r="H4">
-        <v>15.35177067930391</v>
+        <v>9.683516165409834</v>
       </c>
       <c r="I4">
-        <v>20.92746547961286</v>
+        <v>12.7339251707255</v>
       </c>
       <c r="J4">
-        <v>11.31377666514362</v>
+        <v>7.850649739766428</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.24498941369897</v>
+        <v>21.64907045956704</v>
       </c>
       <c r="C5">
-        <v>10.80069448156167</v>
+        <v>17.29032368716686</v>
       </c>
       <c r="D5">
-        <v>10.50314418153018</v>
+        <v>8.031746369333698</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>32.90295194202901</v>
+        <v>24.82126924357358</v>
       </c>
       <c r="G5">
-        <v>33.51939528657008</v>
+        <v>28.16511990741938</v>
       </c>
       <c r="H5">
-        <v>15.37092096523281</v>
+        <v>9.679031937022446</v>
       </c>
       <c r="I5">
-        <v>20.97275093195296</v>
+        <v>12.81121099822361</v>
       </c>
       <c r="J5">
-        <v>11.31132963187937</v>
+        <v>7.780506934249896</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.21408172534895</v>
+        <v>21.57168688751973</v>
       </c>
       <c r="C6">
-        <v>10.77203672541796</v>
+        <v>17.22818992760461</v>
       </c>
       <c r="D6">
-        <v>10.49999374761643</v>
+        <v>8.012421565456355</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>32.90466670182168</v>
+        <v>24.78536488399855</v>
       </c>
       <c r="G6">
-        <v>33.52049161964902</v>
+        <v>28.1155951364556</v>
       </c>
       <c r="H6">
-        <v>15.37416619102398</v>
+        <v>9.678488515573896</v>
       </c>
       <c r="I6">
-        <v>20.98037440787811</v>
+        <v>12.82437802528666</v>
       </c>
       <c r="J6">
-        <v>11.3109601232862</v>
+        <v>7.768892288235768</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.42743615202942</v>
+        <v>22.10350331949095</v>
       </c>
       <c r="C7">
-        <v>10.96944784038692</v>
+        <v>17.65526167329587</v>
       </c>
       <c r="D7">
-        <v>10.52197444571892</v>
+        <v>8.145887818605983</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>32.89389018360743</v>
+        <v>25.03689292757381</v>
       </c>
       <c r="G7">
-        <v>33.51448563719535</v>
+        <v>28.46280080875335</v>
       </c>
       <c r="H7">
-        <v>15.35202456334304</v>
+        <v>9.683442079798434</v>
       </c>
       <c r="I7">
-        <v>20.92806924804166</v>
+        <v>12.7349447827379</v>
       </c>
       <c r="J7">
-        <v>11.31374119597809</v>
+        <v>7.849701636702262</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.33791862184389</v>
+        <v>24.31978219041967</v>
       </c>
       <c r="C8">
-        <v>11.80207179585775</v>
+        <v>19.43658040899129</v>
       </c>
       <c r="D8">
-        <v>10.62167002202078</v>
+        <v>8.717418973855636</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>32.8742959039737</v>
+        <v>26.20315589782092</v>
       </c>
       <c r="G8">
-        <v>33.5278593470112</v>
+        <v>30.07849260821988</v>
       </c>
       <c r="H8">
-        <v>15.2638530810053</v>
+        <v>9.73586845359754</v>
       </c>
       <c r="I8">
-        <v>20.71240379995712</v>
+        <v>12.39238971792266</v>
       </c>
       <c r="J8">
-        <v>11.33135640293135</v>
+        <v>8.210529722382534</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.99706543795873</v>
+        <v>28.20594779763375</v>
       </c>
       <c r="C9">
-        <v>13.2868334650534</v>
+        <v>22.56670521648102</v>
       </c>
       <c r="D9">
-        <v>10.82586410209789</v>
+        <v>9.769156031555882</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>32.93711035114306</v>
+        <v>28.68400763992868</v>
       </c>
       <c r="G9">
-        <v>33.69868289306758</v>
+        <v>33.52991024864345</v>
       </c>
       <c r="H9">
-        <v>15.12557604950412</v>
+        <v>9.960958381367885</v>
       </c>
       <c r="I9">
-        <v>20.34440777578984</v>
+        <v>11.94640812989023</v>
       </c>
       <c r="J9">
-        <v>11.3849852557477</v>
+        <v>8.929296558500118</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.12841870697823</v>
+        <v>30.78998848909426</v>
       </c>
       <c r="C10">
-        <v>14.28119070131794</v>
+        <v>24.65335955655377</v>
       </c>
       <c r="D10">
-        <v>10.98024626536915</v>
+        <v>10.49608322112845</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>33.04538777463353</v>
+        <v>30.61887314406349</v>
       </c>
       <c r="G10">
-        <v>33.91284136030261</v>
+        <v>36.22602068881971</v>
       </c>
       <c r="H10">
-        <v>15.04541524143807</v>
+        <v>10.21179734942752</v>
       </c>
       <c r="I10">
-        <v>20.10798943351103</v>
+        <v>11.79661827175504</v>
       </c>
       <c r="J10">
-        <v>11.43588061152636</v>
+        <v>9.46159294517663</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.6223314346237</v>
+        <v>31.90887155274109</v>
       </c>
       <c r="C11">
-        <v>14.71166706370346</v>
+        <v>25.55835947577875</v>
       </c>
       <c r="D11">
-        <v>11.05122016442852</v>
+        <v>10.81644903266972</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>33.10815474778799</v>
+        <v>31.52294369573446</v>
       </c>
       <c r="G11">
-        <v>34.0294672635288</v>
+        <v>37.48612936774871</v>
       </c>
       <c r="H11">
-        <v>15.01366862823244</v>
+        <v>10.3466987100923</v>
       </c>
       <c r="I11">
-        <v>20.00791447009023</v>
+        <v>11.77663791239385</v>
       </c>
       <c r="J11">
-        <v>11.4614905189759</v>
+        <v>9.704378499469849</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.80626313905879</v>
+        <v>32.32461988003244</v>
       </c>
       <c r="C12">
-        <v>14.87147597718161</v>
+        <v>25.89487836813859</v>
       </c>
       <c r="D12">
-        <v>11.07818564069411</v>
+        <v>10.93626949887753</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>33.13386178312426</v>
+        <v>31.86875299632146</v>
       </c>
       <c r="G12">
-        <v>34.07637600753094</v>
+        <v>37.96815110068339</v>
       </c>
       <c r="H12">
-        <v>15.00233093922991</v>
+        <v>10.40094946688853</v>
       </c>
       <c r="I12">
-        <v>19.97110275147302</v>
+        <v>11.77682158260712</v>
       </c>
       <c r="J12">
-        <v>11.47153755365657</v>
+        <v>9.796402681086148</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.76678983485794</v>
+        <v>32.23543131986369</v>
       </c>
       <c r="C13">
-        <v>14.83720154444431</v>
+        <v>25.82267512205194</v>
       </c>
       <c r="D13">
-        <v>11.07237446097205</v>
+        <v>10.91053052440213</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>33.12823920111795</v>
+        <v>31.79412194177845</v>
       </c>
       <c r="G13">
-        <v>34.06615162511418</v>
+        <v>37.86412224881007</v>
       </c>
       <c r="H13">
-        <v>15.00474220352328</v>
+        <v>10.38912197597518</v>
       </c>
       <c r="I13">
-        <v>19.97898241898097</v>
+        <v>11.77642412326394</v>
       </c>
       <c r="J13">
-        <v>11.469358290221</v>
+        <v>9.776579690854231</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.63752639901472</v>
+        <v>31.9432335598792</v>
       </c>
       <c r="C14">
-        <v>14.72487913138886</v>
+        <v>25.58616798360718</v>
       </c>
       <c r="D14">
-        <v>11.05343694529576</v>
+        <v>10.82633670726023</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>33.11023086670192</v>
+        <v>31.55132398031269</v>
       </c>
       <c r="G14">
-        <v>34.03327158021555</v>
+        <v>37.52568802264928</v>
       </c>
       <c r="H14">
-        <v>15.01272212912155</v>
+        <v>10.35109748756634</v>
       </c>
       <c r="I14">
-        <v>20.00486415494234</v>
+        <v>11.77649294677431</v>
       </c>
       <c r="J14">
-        <v>11.46231012362856</v>
+        <v>9.711947623161617</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.55794157682818</v>
+        <v>31.76322484352462</v>
       </c>
       <c r="C15">
-        <v>14.6556597150978</v>
+        <v>25.44050053657407</v>
       </c>
       <c r="D15">
-        <v>11.04184825499784</v>
+        <v>10.77457079002006</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>33.09945251071567</v>
+        <v>31.40305525731498</v>
       </c>
       <c r="G15">
-        <v>34.01348847281734</v>
+        <v>37.31902050811817</v>
       </c>
       <c r="H15">
-        <v>15.01769930987906</v>
+        <v>10.32822396425814</v>
       </c>
       <c r="I15">
-        <v>20.02085899898064</v>
+        <v>11.77756901293161</v>
       </c>
       <c r="J15">
-        <v>11.45803824991767</v>
+        <v>9.672370001071865</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.09571228266009</v>
+        <v>30.71574377988739</v>
       </c>
       <c r="C16">
-        <v>14.25261277148404</v>
+        <v>24.59334030341159</v>
       </c>
       <c r="D16">
-        <v>10.97562141192457</v>
+        <v>10.47493759854024</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>33.04155739051497</v>
+        <v>30.56027114713243</v>
       </c>
       <c r="G16">
-        <v>33.90560478108567</v>
+        <v>36.14434479006748</v>
       </c>
       <c r="H16">
-        <v>15.04758538644264</v>
+        <v>10.20341479188414</v>
       </c>
       <c r="I16">
-        <v>20.11468078047489</v>
+        <v>11.79896330472455</v>
       </c>
       <c r="J16">
-        <v>11.43425603947006</v>
+        <v>9.445738388693039</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.80674535206898</v>
+        <v>30.05878079283196</v>
       </c>
       <c r="C17">
-        <v>13.99971079102198</v>
+        <v>24.06242663676176</v>
       </c>
       <c r="D17">
-        <v>10.93517142060116</v>
+        <v>10.2884665026078</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>33.00949912219409</v>
+        <v>30.04936485380815</v>
       </c>
       <c r="G17">
-        <v>33.8443309219854</v>
+        <v>35.4323071505305</v>
       </c>
       <c r="H17">
-        <v>15.06713210543075</v>
+        <v>10.13230060102699</v>
       </c>
       <c r="I17">
-        <v>20.17415833426133</v>
+        <v>11.82500458698413</v>
       </c>
       <c r="J17">
-        <v>11.4202929342272</v>
+        <v>9.306862366864001</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.63859239271939</v>
+        <v>29.67557230390674</v>
       </c>
       <c r="C18">
-        <v>13.85219319237984</v>
+        <v>23.75288469824811</v>
       </c>
       <c r="D18">
-        <v>10.91197682533319</v>
+        <v>10.18024180578088</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>32.99233225443709</v>
+        <v>29.75774879131925</v>
       </c>
       <c r="G18">
-        <v>33.81089687270909</v>
+        <v>35.02592105159202</v>
       </c>
       <c r="H18">
-        <v>15.07881871022111</v>
+        <v>10.09334448134268</v>
       </c>
       <c r="I18">
-        <v>20.20907102386599</v>
+        <v>11.84446502586481</v>
       </c>
       <c r="J18">
-        <v>11.41249330660562</v>
+        <v>9.227044279761062</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.58132826037478</v>
+        <v>29.54490160931223</v>
       </c>
       <c r="C19">
-        <v>13.80189533038557</v>
+        <v>23.647357058572</v>
       </c>
       <c r="D19">
-        <v>10.9041363010508</v>
+        <v>10.14343255353594</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>32.98673842494139</v>
+        <v>29.65939834257625</v>
       </c>
       <c r="G19">
-        <v>33.79988776427993</v>
+        <v>34.88886973409753</v>
       </c>
       <c r="H19">
-        <v>15.0828516559031</v>
+        <v>10.08048356330175</v>
       </c>
       <c r="I19">
-        <v>20.22101226667478</v>
+        <v>11.85179893554033</v>
       </c>
       <c r="J19">
-        <v>11.40989238293662</v>
+        <v>9.200029941067793</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.83770878614809</v>
+        <v>30.12926702957721</v>
       </c>
       <c r="C20">
-        <v>14.02684580096939</v>
+        <v>24.11937412058113</v>
       </c>
       <c r="D20">
-        <v>10.93947015474263</v>
+        <v>10.30841734613639</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>33.01278013244258</v>
+        <v>30.10351953198686</v>
       </c>
       <c r="G20">
-        <v>33.85066649479285</v>
+        <v>35.50777809077866</v>
       </c>
       <c r="H20">
-        <v>15.06500534713785</v>
+        <v>10.13966804648745</v>
       </c>
       <c r="I20">
-        <v>20.16775404236089</v>
+        <v>11.82176262802597</v>
       </c>
       <c r="J20">
-        <v>11.42175539218784</v>
+        <v>9.321639867529832</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.6755792581673</v>
+        <v>32.02927323396277</v>
       </c>
       <c r="C21">
-        <v>14.75795829151006</v>
+        <v>25.65580224647061</v>
       </c>
       <c r="D21">
-        <v>11.0589970746044</v>
+        <v>10.85110706071269</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>33.1154677909639</v>
+        <v>31.6225452880963</v>
       </c>
       <c r="G21">
-        <v>34.04285491494862</v>
+        <v>37.62496222316917</v>
       </c>
       <c r="H21">
-        <v>15.01035962316447</v>
+        <v>10.36217886740463</v>
       </c>
       <c r="I21">
-        <v>19.99723254810037</v>
+        <v>11.7762557831011</v>
       </c>
       <c r="J21">
-        <v>11.46437090209826</v>
+        <v>9.730929242122782</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.20505055929059</v>
+        <v>33.22480855943713</v>
       </c>
       <c r="C22">
-        <v>15.21709296324635</v>
+        <v>26.62398929860461</v>
       </c>
       <c r="D22">
-        <v>11.13762644036836</v>
+        <v>11.19707752550265</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>33.19387501402013</v>
+        <v>32.63552873566127</v>
       </c>
       <c r="G22">
-        <v>34.18444853105425</v>
+        <v>39.06642658189231</v>
       </c>
       <c r="H22">
-        <v>14.97863518233315</v>
+        <v>10.52614044297115</v>
       </c>
       <c r="I22">
-        <v>19.89211302201067</v>
+        <v>11.79207177964167</v>
       </c>
       <c r="J22">
-        <v>11.49425524764789</v>
+        <v>9.998937451641078</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.92415495648313</v>
+        <v>32.59089112029306</v>
       </c>
       <c r="C23">
-        <v>14.97377077306243</v>
+        <v>26.11047768217754</v>
       </c>
       <c r="D23">
-        <v>11.09561957385421</v>
+        <v>11.01322304946604</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>33.15099643284778</v>
+        <v>32.09300589369801</v>
       </c>
       <c r="G23">
-        <v>34.10742186625743</v>
+        <v>38.28074225974616</v>
       </c>
       <c r="H23">
-        <v>14.99520027861899</v>
+        <v>10.43687698832085</v>
       </c>
       <c r="I23">
-        <v>19.94763508860559</v>
+        <v>11.77918787925045</v>
       </c>
       <c r="J23">
-        <v>11.47812094090737</v>
+        <v>9.855846919895447</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.82371650651677</v>
+        <v>30.09741738403262</v>
       </c>
       <c r="C24">
-        <v>14.01458466446622</v>
+        <v>24.09364160897638</v>
       </c>
       <c r="D24">
-        <v>10.93752650679254</v>
+        <v>10.29940074571478</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>33.01129285062165</v>
+        <v>30.07902962813194</v>
       </c>
       <c r="G24">
-        <v>33.84779659582886</v>
+        <v>35.47364841508765</v>
       </c>
       <c r="H24">
-        <v>15.06596545656262</v>
+        <v>10.13633123131187</v>
       </c>
       <c r="I24">
-        <v>20.17064718615046</v>
+        <v>11.82321439804713</v>
       </c>
       <c r="J24">
-        <v>11.42109350461139</v>
+        <v>9.314958885358926</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.56294244846251</v>
+        <v>27.20295621266973</v>
       </c>
       <c r="C25">
-        <v>12.90174042808348</v>
+        <v>21.75797011532145</v>
       </c>
       <c r="D25">
-        <v>10.7697892340432</v>
+        <v>9.492480894638868</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>32.90922376950051</v>
+        <v>27.99284198520003</v>
       </c>
       <c r="G25">
-        <v>33.63690891674104</v>
+        <v>32.56735900572129</v>
       </c>
       <c r="H25">
-        <v>15.1592429919309</v>
+        <v>9.885826685983988</v>
       </c>
       <c r="I25">
-        <v>20.43803363356785</v>
+        <v>12.03892075040713</v>
       </c>
       <c r="J25">
-        <v>11.36844666147552</v>
+        <v>8.733966373494992</v>
       </c>
       <c r="K25">
         <v>0</v>
